--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H2">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I2">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J2">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1686942107306</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N2">
-        <v>15.1686942107306</v>
+        <v>46.980431</v>
       </c>
       <c r="O2">
-        <v>0.753243867366462</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P2">
-        <v>0.753243867366462</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q2">
-        <v>312.7377398022836</v>
+        <v>334.3445527477871</v>
       </c>
       <c r="R2">
-        <v>312.7377398022836</v>
+        <v>3009.100974730083</v>
       </c>
       <c r="S2">
-        <v>0.05345070860362067</v>
+        <v>0.04949239219184903</v>
       </c>
       <c r="T2">
-        <v>0.05345070860362067</v>
+        <v>0.04949239219184903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H3">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I3">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J3">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.945362273403315</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N3">
-        <v>0.945362273403315</v>
+        <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q3">
-        <v>19.49083135114906</v>
+        <v>21.175152896079</v>
       </c>
       <c r="R3">
-        <v>19.49083135114906</v>
+        <v>190.576376064711</v>
       </c>
       <c r="S3">
-        <v>0.003331221705609371</v>
+        <v>0.003134517859621526</v>
       </c>
       <c r="T3">
-        <v>0.003331221705609371</v>
+        <v>0.003134517859621525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H4">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I4">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J4">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.02376987980892</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N4">
-        <v>4.02376987980892</v>
+        <v>0.264995</v>
       </c>
       <c r="O4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q4">
-        <v>82.95932927474695</v>
+        <v>1.885883821615</v>
       </c>
       <c r="R4">
-        <v>82.95932927474695</v>
+        <v>16.972954394535</v>
       </c>
       <c r="S4">
-        <v>0.01417876505029324</v>
+        <v>0.0002791638175664891</v>
       </c>
       <c r="T4">
-        <v>0.01417876505029324</v>
+        <v>0.0002791638175664891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.080036702256</v>
+        <v>21.350031</v>
       </c>
       <c r="H5">
-        <v>133.080036702256</v>
+        <v>64.050093</v>
       </c>
       <c r="I5">
-        <v>0.4580350133168423</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J5">
-        <v>0.4580350133168423</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1686942107306</v>
+        <v>0.008727</v>
       </c>
       <c r="N5">
-        <v>15.1686942107306</v>
+        <v>0.026181</v>
       </c>
       <c r="O5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q5">
-        <v>2018.650382289326</v>
+        <v>0.186321720537</v>
       </c>
       <c r="R5">
-        <v>2018.650382289326</v>
+        <v>1.676895484833</v>
       </c>
       <c r="S5">
-        <v>0.3450120648200272</v>
+        <v>2.75808521206372E-05</v>
       </c>
       <c r="T5">
-        <v>0.3450120648200272</v>
+        <v>2.758085212063719E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.080036702256</v>
+        <v>21.350031</v>
       </c>
       <c r="H6">
-        <v>133.080036702256</v>
+        <v>64.050093</v>
       </c>
       <c r="I6">
-        <v>0.4580350133168423</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J6">
-        <v>0.4580350133168423</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.945362273403315</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N6">
-        <v>0.945362273403315</v>
+        <v>13.658273</v>
       </c>
       <c r="O6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q6">
-        <v>125.8088460414413</v>
+        <v>97.20151731882102</v>
       </c>
       <c r="R6">
-        <v>125.8088460414413</v>
+        <v>874.8136558693891</v>
       </c>
       <c r="S6">
-        <v>0.0215022720755423</v>
+        <v>0.01438855688614995</v>
       </c>
       <c r="T6">
-        <v>0.0215022720755423</v>
+        <v>0.01438855688614995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H7">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I7">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J7">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02376987980892</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N7">
-        <v>4.02376987980892</v>
+        <v>46.980431</v>
       </c>
       <c r="O7">
-        <v>0.1998115291635227</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P7">
-        <v>0.1998115291635227</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q7">
-        <v>535.4834432864033</v>
+        <v>2084.670917658713</v>
       </c>
       <c r="R7">
-        <v>535.4834432864033</v>
+        <v>18762.03825892841</v>
       </c>
       <c r="S7">
-        <v>0.09152067642127273</v>
+        <v>0.3085898956623265</v>
       </c>
       <c r="T7">
-        <v>0.09152067642127273</v>
+        <v>0.3085898956623264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.1951909532509</v>
+        <v>133.119527</v>
       </c>
       <c r="H8">
-        <v>67.1951909532509</v>
+        <v>399.358581</v>
       </c>
       <c r="I8">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J8">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.1686942107306</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N8">
-        <v>15.1686942107306</v>
+        <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q8">
-        <v>1019.263304001514</v>
+        <v>132.029144954343</v>
       </c>
       <c r="R8">
-        <v>1019.263304001514</v>
+        <v>1188.262304589087</v>
       </c>
       <c r="S8">
-        <v>0.1742045775703044</v>
+        <v>0.0195440247766324</v>
       </c>
       <c r="T8">
-        <v>0.1742045775703044</v>
+        <v>0.0195440247766324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.1951909532509</v>
+        <v>133.119527</v>
       </c>
       <c r="H9">
-        <v>67.1951909532509</v>
+        <v>399.358581</v>
       </c>
       <c r="I9">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J9">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.945362273403315</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N9">
-        <v>0.945362273403315</v>
+        <v>0.264995</v>
       </c>
       <c r="O9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q9">
-        <v>63.52379848133513</v>
+        <v>11.75866968578833</v>
       </c>
       <c r="R9">
-        <v>63.52379848133513</v>
+        <v>105.828027172095</v>
       </c>
       <c r="S9">
-        <v>0.01085699488705</v>
+        <v>0.001740613648287692</v>
       </c>
       <c r="T9">
-        <v>0.01085699488705</v>
+        <v>0.001740613648287692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.1951909532509</v>
+        <v>133.119527</v>
       </c>
       <c r="H10">
-        <v>67.1951909532509</v>
+        <v>399.358581</v>
       </c>
       <c r="I10">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J10">
-        <v>0.2312724804243933</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.02376987980892</v>
+        <v>0.008727</v>
       </c>
       <c r="N10">
-        <v>4.02376987980892</v>
+        <v>0.026181</v>
       </c>
       <c r="O10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q10">
-        <v>270.3779854256998</v>
+        <v>1.161734112129</v>
       </c>
       <c r="R10">
-        <v>270.3779854256998</v>
+        <v>10.455607009161</v>
       </c>
       <c r="S10">
-        <v>0.04621090796703888</v>
+        <v>0.0001719693048012984</v>
       </c>
       <c r="T10">
-        <v>0.04621090796703888</v>
+        <v>0.0001719693048012984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.1985508011557</v>
+        <v>133.119527</v>
       </c>
       <c r="H11">
-        <v>46.1985508011557</v>
+        <v>399.358581</v>
       </c>
       <c r="I11">
-        <v>0.1590062217879404</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J11">
-        <v>0.1590062217879404</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1686942107306</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N11">
-        <v>15.1686942107306</v>
+        <v>13.658273</v>
       </c>
       <c r="O11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q11">
-        <v>700.7716900816339</v>
+        <v>606.0609471322905</v>
       </c>
       <c r="R11">
-        <v>700.7716900816339</v>
+        <v>5454.548524190614</v>
       </c>
       <c r="S11">
-        <v>0.1197704614348776</v>
+        <v>0.08971405647593082</v>
       </c>
       <c r="T11">
-        <v>0.1197704614348776</v>
+        <v>0.08971405647593081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.1985508011557</v>
+        <v>67.205597</v>
       </c>
       <c r="H12">
-        <v>46.1985508011557</v>
+        <v>201.616791</v>
       </c>
       <c r="I12">
-        <v>0.1590062217879404</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J12">
-        <v>0.1590062217879404</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.945362273403315</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N12">
-        <v>0.945362273403315</v>
+        <v>46.980431</v>
       </c>
       <c r="O12">
-        <v>0.04694460347001523</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P12">
-        <v>0.04694460347001523</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q12">
-        <v>43.67436701331909</v>
+        <v>1052.449304224102</v>
       </c>
       <c r="R12">
-        <v>43.67436701331909</v>
+        <v>9472.043738016922</v>
       </c>
       <c r="S12">
-        <v>0.007464484031100158</v>
+        <v>0.1557920812485636</v>
       </c>
       <c r="T12">
-        <v>0.007464484031100158</v>
+        <v>0.1557920812485636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.1985508011557</v>
+        <v>67.205597</v>
       </c>
       <c r="H13">
-        <v>46.1985508011557</v>
+        <v>201.616791</v>
       </c>
       <c r="I13">
-        <v>0.1590062217879404</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J13">
-        <v>0.1590062217879404</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.02376987980892</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N13">
-        <v>4.02376987980892</v>
+        <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q13">
-        <v>185.8923372045125</v>
+        <v>66.655115954973</v>
       </c>
       <c r="R13">
-        <v>185.8923372045125</v>
+        <v>599.896043594757</v>
       </c>
       <c r="S13">
-        <v>0.03177127632196261</v>
+        <v>0.009866830828630964</v>
       </c>
       <c r="T13">
-        <v>0.03177127632196261</v>
+        <v>0.009866830828630964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.454461011503</v>
+        <v>67.205597</v>
       </c>
       <c r="H14">
-        <v>23.454461011503</v>
+        <v>201.616791</v>
       </c>
       <c r="I14">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J14">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>15.1686942107306</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N14">
-        <v>15.1686942107306</v>
+        <v>0.264995</v>
       </c>
       <c r="O14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q14">
-        <v>355.7735469609921</v>
+        <v>5.936382392338333</v>
       </c>
       <c r="R14">
-        <v>355.7735469609921</v>
+        <v>53.427441531045</v>
       </c>
       <c r="S14">
-        <v>0.0608060549376321</v>
+        <v>0.0008787514650613381</v>
       </c>
       <c r="T14">
-        <v>0.0608060549376321</v>
+        <v>0.0008787514650613382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.454461011503</v>
+        <v>67.205597</v>
       </c>
       <c r="H15">
-        <v>23.454461011503</v>
+        <v>201.616791</v>
       </c>
       <c r="I15">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J15">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.945362273403315</v>
+        <v>0.008727</v>
       </c>
       <c r="N15">
-        <v>0.945362273403315</v>
+        <v>0.026181</v>
       </c>
       <c r="O15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q15">
-        <v>22.17296258328389</v>
+        <v>0.586503245019</v>
       </c>
       <c r="R15">
-        <v>22.17296258328389</v>
+        <v>5.278529205171</v>
       </c>
       <c r="S15">
-        <v>0.003789630770713391</v>
+        <v>8.681896679850903E-05</v>
       </c>
       <c r="T15">
-        <v>0.003789630770713391</v>
+        <v>8.681896679850902E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.454461011503</v>
+        <v>67.205597</v>
       </c>
       <c r="H16">
-        <v>23.454461011503</v>
+        <v>201.616791</v>
       </c>
       <c r="I16">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J16">
-        <v>0.08072558911130071</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.02376987980892</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N16">
-        <v>4.02376987980892</v>
+        <v>13.658273</v>
       </c>
       <c r="O16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q16">
-        <v>94.37535376523842</v>
+        <v>305.9707969846604</v>
       </c>
       <c r="R16">
-        <v>94.37535376523842</v>
+        <v>2753.737172861943</v>
       </c>
       <c r="S16">
-        <v>0.01612990340295521</v>
+        <v>0.0452922787560434</v>
       </c>
       <c r="T16">
-        <v>0.01612990340295521</v>
+        <v>0.0452922787560434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>67.69602866666668</v>
+      </c>
+      <c r="H17">
+        <v>203.088086</v>
+      </c>
+      <c r="I17">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="J17">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N17">
+        <v>46.980431</v>
+      </c>
+      <c r="O17">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P17">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q17">
+        <v>1060.129534582785</v>
+      </c>
+      <c r="R17">
+        <v>9541.165811245068</v>
+      </c>
+      <c r="S17">
+        <v>0.1569289712320006</v>
+      </c>
+      <c r="T17">
+        <v>0.1569289712320006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>67.69602866666668</v>
+      </c>
+      <c r="H18">
+        <v>203.088086</v>
+      </c>
+      <c r="I18">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="J18">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.975427</v>
+      </c>
+      <c r="O18">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P18">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q18">
+        <v>67.14153049585801</v>
+      </c>
+      <c r="R18">
+        <v>604.273774462722</v>
+      </c>
+      <c r="S18">
+        <v>0.009938833853736204</v>
+      </c>
+      <c r="T18">
+        <v>0.009938833853736203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>67.69602866666668</v>
+      </c>
+      <c r="H19">
+        <v>203.088086</v>
+      </c>
+      <c r="I19">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="J19">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.264995</v>
+      </c>
+      <c r="O19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q19">
+        <v>5.979703038841111</v>
+      </c>
+      <c r="R19">
+        <v>53.81732734957001</v>
+      </c>
+      <c r="S19">
+        <v>0.0008851641384819138</v>
+      </c>
+      <c r="T19">
+        <v>0.0008851641384819138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>67.69602866666668</v>
+      </c>
+      <c r="H20">
+        <v>203.088086</v>
+      </c>
+      <c r="I20">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="J20">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008727</v>
+      </c>
+      <c r="N20">
+        <v>0.026181</v>
+      </c>
+      <c r="O20">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P20">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q20">
+        <v>0.5907832421740001</v>
+      </c>
+      <c r="R20">
+        <v>5.317049179566001</v>
+      </c>
+      <c r="S20">
+        <v>8.745252668765444E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.745252668765443E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>67.69602866666668</v>
+      </c>
+      <c r="H21">
+        <v>203.088086</v>
+      </c>
+      <c r="I21">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="J21">
+        <v>0.2134632201176521</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N21">
+        <v>13.658273</v>
+      </c>
+      <c r="O21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q21">
+        <v>308.2036135150532</v>
+      </c>
+      <c r="R21">
+        <v>2773.832521635479</v>
+      </c>
+      <c r="S21">
+        <v>0.04562279836674574</v>
+      </c>
+      <c r="T21">
+        <v>0.04562279836674574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.76086666666666</v>
+      </c>
+      <c r="H22">
+        <v>83.28259999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="J22">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N22">
+        <v>46.980431</v>
+      </c>
+      <c r="O22">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P22">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q22">
+        <v>434.7391603111777</v>
+      </c>
+      <c r="R22">
+        <v>3912.6524428006</v>
+      </c>
+      <c r="S22">
+        <v>0.06435361619157813</v>
+      </c>
+      <c r="T22">
+        <v>0.06435361619157812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.76086666666666</v>
+      </c>
+      <c r="H23">
+        <v>83.28259999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="J23">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.975427</v>
+      </c>
+      <c r="O23">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P23">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q23">
+        <v>27.53347740779999</v>
+      </c>
+      <c r="R23">
+        <v>247.8012966701999</v>
+      </c>
+      <c r="S23">
+        <v>0.00407572861909374</v>
+      </c>
+      <c r="T23">
+        <v>0.004075728619093739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.76086666666666</v>
+      </c>
+      <c r="H24">
+        <v>83.28259999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="J24">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.264995</v>
+      </c>
+      <c r="O24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q24">
+        <v>2.452163620777777</v>
+      </c>
+      <c r="R24">
+        <v>22.069472587</v>
+      </c>
+      <c r="S24">
+        <v>0.0003629891458996458</v>
+      </c>
+      <c r="T24">
+        <v>0.0003629891458996458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.76086666666666</v>
+      </c>
+      <c r="H25">
+        <v>83.28259999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="J25">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008727</v>
+      </c>
+      <c r="N25">
+        <v>0.026181</v>
+      </c>
+      <c r="O25">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P25">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q25">
+        <v>0.2422690834</v>
+      </c>
+      <c r="R25">
+        <v>2.180421750599999</v>
+      </c>
+      <c r="S25">
+        <v>3.586263449800422E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.586263449800422E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.76086666666666</v>
+      </c>
+      <c r="H26">
+        <v>83.28259999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="J26">
+        <v>0.08753724714196366</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N26">
+        <v>13.658273</v>
+      </c>
+      <c r="O26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q26">
+        <v>126.3884985499778</v>
+      </c>
+      <c r="R26">
+        <v>1137.4964869498</v>
+      </c>
+      <c r="S26">
+        <v>0.01870905055089415</v>
+      </c>
+      <c r="T26">
+        <v>0.01870905055089414</v>
       </c>
     </row>
   </sheetData>
